--- a/Data_file/วัตถุดิบ1-1.xlsx
+++ b/Data_file/วัตถุดิบ1-1.xlsx
@@ -12,12 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1.1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1.1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1.1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1.1 (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1.1!$A$1:$J$1002</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1.1 (2)'!$A$1:$N$1003</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1.1!$A$1:$J$1002</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet1.1 (2)'!$A$1:$N$1003</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10019" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="555">
   <si>
     <t>partner_id</t>
   </si>
@@ -1689,6 +1690,12 @@
   <si>
     <t>llkkk</t>
   </si>
+  <si>
+    <t>คลังวัตถุดิบ1-1 Update</t>
+  </si>
+  <si>
+    <t>MA0702201.</t>
+  </si>
 </sst>
 </file>
 
@@ -1813,7 +1820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,6 +1898,7 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -2171,9 +2179,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="33">
+        <v>45716</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="33">
+        <v>45716</v>
+      </c>
+      <c r="E2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>974</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A987" workbookViewId="0">
+    <sheetView topLeftCell="A987" workbookViewId="0">
       <selection activeCell="K1001" sqref="K1001"/>
     </sheetView>
   </sheetViews>
@@ -36850,7 +36946,7 @@
         <v>963</v>
       </c>
       <c r="K963" s="13">
-        <f t="shared" ref="K963:K1001" si="15">I963*H963</f>
+        <f t="shared" ref="K963:K1000" si="15">I963*H963</f>
         <v>2803.3910999999998</v>
       </c>
     </row>
@@ -38203,12 +38299,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A767" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
